--- a/biology/Histoire de la zoologie et de la botanique/Delane_C._Kritsky/Delane_C._Kritsky.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Delane_C._Kritsky/Delane_C._Kritsky.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Delane C. Kritsky est un parasitologue américain spécialiste des Monogènes, qui sont des parasites de poissons appartenant à une classe de Plathelminthes. Sa recherche a surtout concerné la taxonomie, la systématique et la phylogénie des Monogènes.
-Delane C. Kritsky est un des auteurs les plus prolifiques et les plus respectés dans le monde dans le domaine de la systématique des Monogènes, et il a décrit des centaines d'espèces [1]. Il a aussi été le co-auteur d'une des révisions des Monogènes les plus citées, en 1993 [2].
+Delane C. Kritsky est un des auteurs les plus prolifiques et les plus respectés dans le monde dans le domaine de la systématique des Monogènes, et il a décrit des centaines d'espèces . Il a aussi été le co-auteur d'une des révisions des Monogènes les plus citées, en 1993 .
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Delane C. Kritsky a passé sa thèse (PhD) en 1971 à l'Université de l'Illinois à Urbana-Champaign [3],[4]. Il a fait toute sa carrière à Université d'État de l'Idaho à Pocatello, où il a commencé en 1974 et est devenu Professeur en 1983. Il a été administrateur pendant une grande partie de sa carrière: de 1979 à 1989 il a été le chef du Département des Professions Médicales, a été Doyen en 1985-1986, et Doyen associé de 1989 à sa retraite [4]. Il est toujours (2018) Professeur émérite de l'Université d'État de l'Idaho [5]. Il est membre du Comité de rédaction de plusieurs revues scientifiques de parasitologie, dont Zoologia [6] et Systematic Parasitology [7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Delane C. Kritsky a passé sa thèse (PhD) en 1971 à l'Université de l'Illinois à Urbana-Champaign ,. Il a fait toute sa carrière à Université d'État de l'Idaho à Pocatello, où il a commencé en 1974 et est devenu Professeur en 1983. Il a été administrateur pendant une grande partie de sa carrière: de 1979 à 1989 il a été le chef du Département des Professions Médicales, a été Doyen en 1985-1986, et Doyen associé de 1989 à sa retraite . Il est toujours (2018) Professeur émérite de l'Université d'État de l'Idaho . Il est membre du Comité de rédaction de plusieurs revues scientifiques de parasitologie, dont Zoologia  et Systematic Parasitology .
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Taxons dédiés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De nombreux taxons ont été dédiés à Delane C. Kritsky par ses collègues du Monde entier. Ces taxons incluent deux genres, le Digène Kritsky Orélis-Ribeiro  and Bullard, 2016 [8] et le Monogène  Kritskyia Kohn, 1990 [9].
-Plusieurs espèces de Monogènes ont été nommés en son honneur, dont Bravohollisia kritskyi Lim, 1995[10], Dactylogyrus kritskyi Mizelle &amp; McDougal 1970[11], Protogyrodactylus kritskyi Boeger, Diamanka, Pariselle &amp; Patella 2012[12], Pseudorhabdosynochus kritskyi Dyer, Williams &amp; Bunkley-Williams, 1995[13], Sciadicleithrum kritskyi Bellay, Takemoto, Yamada &amp;  Pavanelli, 2009[14]  and Haliotrema kritskyi Vala, Maillard &amp; Overstreet, 1982 [15] et aussi une espèce de Digène, Lissorchis kritskyi Barnhart &amp; Powell 1979[16].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreux taxons ont été dédiés à Delane C. Kritsky par ses collègues du Monde entier. Ces taxons incluent deux genres, le Digène Kritsky Orélis-Ribeiro  and Bullard, 2016  et le Monogène  Kritskyia Kohn, 1990 .
+Plusieurs espèces de Monogènes ont été nommés en son honneur, dont Bravohollisia kritskyi Lim, 1995, Dactylogyrus kritskyi Mizelle &amp; McDougal 1970, Protogyrodactylus kritskyi Boeger, Diamanka, Pariselle &amp; Patella 2012, Pseudorhabdosynochus kritskyi Dyer, Williams &amp; Bunkley-Williams, 1995, Sciadicleithrum kritskyi Bellay, Takemoto, Yamada &amp;  Pavanelli, 2009  and Haliotrema kritskyi Vala, Maillard &amp; Overstreet, 1982  et aussi une espèce de Digène, Lissorchis kritskyi Barnhart &amp; Powell 1979.
 </t>
         </is>
       </c>
